--- a/jems-ui/e2e/cypress/fixtures/programme/TB-747-partner-export-de-de.xlsx
+++ b/jems-ui/e2e/cypress/fixtures/programme/TB-747-partner-export-de-de.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jilic\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jems\ems\jems-ui\e2e\cypress\fixtures\programme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717A423F-5DA4-4E2B-A20B-1030990B97DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85ACF24-5FA0-4A9C-8A22-9854C65ACF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21630" yWindow="2460" windowWidth="29685" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23625" yWindow="2700" windowWidth="19890" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Partner data" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="172">
   <si>
     <t>API generated application title DE</t>
   </si>
   <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
     <t>PO1</t>
   </si>
   <si>
@@ -67,160 +73,469 @@
     <t>Micro enterprise</t>
   </si>
   <si>
+    <t>A.03.22</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>654321</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>There is a risk of indirect aid</t>
+  </si>
+  <si>
+    <t>General de minimis DE</t>
+  </si>
+  <si>
+    <t>Partnerstreet-2</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>Partner city</t>
+  </si>
+  <si>
+    <t>partner@test.com</t>
+  </si>
+  <si>
+    <t>Linz-Wels (AT312)</t>
+  </si>
+  <si>
+    <t>Departmentstreet-5</t>
+  </si>
+  <si>
+    <t>4020</t>
+  </si>
+  <si>
+    <t>Department city</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>Representative</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>contact@person.com</t>
+  </si>
+  <si>
+    <t>+1234567890</t>
+  </si>
+  <si>
+    <t>PP2</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Project Partner</t>
+  </si>
+  <si>
+    <t>Project Partner in original language</t>
+  </si>
+  <si>
+    <t>Project Partner in english</t>
+  </si>
+  <si>
+    <t>France (FR)</t>
+  </si>
+  <si>
+    <t>Savoie (FRK27)</t>
+  </si>
+  <si>
+    <t>Rhône-Alpes (FRK2)</t>
+  </si>
+  <si>
+    <t>National public authority</t>
+  </si>
+  <si>
+    <t>Large enterprise</t>
+  </si>
+  <si>
+    <t>C.10.82</t>
+  </si>
+  <si>
+    <t>444444</t>
+  </si>
+  <si>
+    <t>Partly</t>
+  </si>
+  <si>
+    <t>666666</t>
+  </si>
+  <si>
+    <t>111111111</t>
+  </si>
+  <si>
+    <t>España (ES)</t>
+  </si>
+  <si>
+    <t>León (ES413)</t>
+  </si>
+  <si>
+    <t>Ts</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>name@surname.com</t>
+  </si>
+  <si>
+    <t>+0987654321</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Call name</t>
+  </si>
+  <si>
+    <t>Project id (automatically created)</t>
+  </si>
+  <si>
+    <t>Project acronym</t>
+  </si>
+  <si>
+    <t>Project title</t>
+  </si>
+  <si>
+    <t>Project version</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Programme priority</t>
+  </si>
+  <si>
+    <t>Specific objective</t>
+  </si>
+  <si>
+    <t>Partner number</t>
+  </si>
+  <si>
+    <t>Partner role</t>
+  </si>
+  <si>
+    <t>Abbreviated name of the organisation</t>
+  </si>
+  <si>
+    <t>Name of the organisation in original language</t>
+  </si>
+  <si>
+    <t>Name of the organisation in english</t>
+  </si>
+  <si>
+    <t>Partner main address - Country</t>
+  </si>
+  <si>
+    <t>Partner main address - NUTS 2</t>
+  </si>
+  <si>
+    <t>Partner main address - NUTS 3</t>
+  </si>
+  <si>
+    <t>ERDF DE</t>
+  </si>
+  <si>
+    <t>ERDF DE % Rate</t>
+  </si>
+  <si>
+    <t>% of total ERDF DE</t>
+  </si>
+  <si>
+    <t>IPA III CBC</t>
+  </si>
+  <si>
+    <t>IPA III CBC % Rate</t>
+  </si>
+  <si>
+    <t>% of total IPA III CBC</t>
+  </si>
+  <si>
+    <t>Neighbourhood CBC DE</t>
+  </si>
+  <si>
+    <t>Neighbourhood CBC DE % Rate</t>
+  </si>
+  <si>
+    <t>% of total Neighbourhood CBC DE</t>
+  </si>
+  <si>
+    <t>IPA III</t>
+  </si>
+  <si>
+    <t>IPA III % Rate</t>
+  </si>
+  <si>
+    <t>% of total IPA III</t>
+  </si>
+  <si>
+    <t>NDICI</t>
+  </si>
+  <si>
+    <t>NDICI % Rate</t>
+  </si>
+  <si>
+    <t>% of total NDICI</t>
+  </si>
+  <si>
+    <t>OCTP</t>
+  </si>
+  <si>
+    <t>OCTP % Rate</t>
+  </si>
+  <si>
+    <t>% of total OCTP</t>
+  </si>
+  <si>
+    <t>Interreg Funds</t>
+  </si>
+  <si>
+    <t>Interreg Funds % Rate</t>
+  </si>
+  <si>
+    <t>% of total Interreg Funds</t>
+  </si>
+  <si>
+    <t>Other fund DE</t>
+  </si>
+  <si>
+    <t>Other fund DE % Rate</t>
+  </si>
+  <si>
+    <t>% of total Other fund DE</t>
+  </si>
+  <si>
+    <t>Public Contribution</t>
+  </si>
+  <si>
+    <t>Auto Public Contribution</t>
+  </si>
+  <si>
+    <t>Private Contribution</t>
+  </si>
+  <si>
+    <t>Total partner contribution</t>
+  </si>
+  <si>
+    <t>Total eligible budget</t>
+  </si>
+  <si>
+    <t>% of Total eligible budget</t>
+  </si>
+  <si>
+    <t>Staff cost - total</t>
+  </si>
+  <si>
+    <t>Staff costs flat rate</t>
+  </si>
+  <si>
+    <t>Staff - real cost</t>
+  </si>
+  <si>
+    <t>Staff - unit cost</t>
+  </si>
+  <si>
+    <t>Office and administrative costs - total</t>
+  </si>
+  <si>
+    <t>Office and administrative costs - flat rate</t>
+  </si>
+  <si>
+    <t>Travel and accommodation - total</t>
+  </si>
+  <si>
+    <t>Travel and accommodation flat rate</t>
+  </si>
+  <si>
+    <t>Travel and accommodation - real cost</t>
+  </si>
+  <si>
+    <t>Travel and accommodation - unit cost</t>
+  </si>
+  <si>
+    <t>External expertise and services - total</t>
+  </si>
+  <si>
+    <t>External expertise and services - real cost</t>
+  </si>
+  <si>
+    <t>External expertise and services - unit cost</t>
+  </si>
+  <si>
+    <t>Equipment - total</t>
+  </si>
+  <si>
+    <t>Equipment - real cost</t>
+  </si>
+  <si>
+    <t>Equipment - unit cost</t>
+  </si>
+  <si>
+    <t>Infrastructure and works - total</t>
+  </si>
+  <si>
+    <t>Infrastructure and works - real cost</t>
+  </si>
+  <si>
+    <t>Infrastructure and works - unit cost</t>
+  </si>
+  <si>
+    <t>Other costs</t>
+  </si>
+  <si>
+    <t>Unit costs covering more than one cost category</t>
+  </si>
+  <si>
+    <t>Lump sum</t>
+  </si>
+  <si>
+    <t>Preparation</t>
+  </si>
+  <si>
+    <t>Period 1</t>
+  </si>
+  <si>
+    <t>Period 2</t>
+  </si>
+  <si>
+    <t>Period 3</t>
+  </si>
+  <si>
+    <t>Period 4</t>
+  </si>
+  <si>
+    <t>Period 5</t>
+  </si>
+  <si>
+    <t>Period 6</t>
+  </si>
+  <si>
+    <t>Period 7</t>
+  </si>
+  <si>
+    <t>Period 8</t>
+  </si>
+  <si>
+    <t>Closure</t>
+  </si>
+  <si>
+    <t>Department / unit / division</t>
+  </si>
+  <si>
+    <t>Type of partner</t>
+  </si>
+  <si>
+    <t>Subtype of partner</t>
+  </si>
+  <si>
+    <t>Legal status</t>
+  </si>
+  <si>
+    <t>Sector of activity at NACE group level</t>
+  </si>
+  <si>
+    <t>VAT number (or other identifier)</t>
+  </si>
+  <si>
+    <t>Is your organisation entitled to recover VAT based on national legislation for the activities implemented in the project?</t>
+  </si>
+  <si>
+    <t>Other identifier number</t>
+  </si>
+  <si>
+    <t>Other identifier description</t>
+  </si>
+  <si>
+    <t>PIC (from EC Participant Register)</t>
+  </si>
+  <si>
+    <t>Result of State aid criteria self-check:</t>
+  </si>
+  <si>
+    <t>GBER scheme / de minimis</t>
+  </si>
+  <si>
+    <t>Partner main address - Street - House number</t>
+  </si>
+  <si>
+    <t>Partner main address - Postal code</t>
+  </si>
+  <si>
+    <t>Partner main address - City</t>
+  </si>
+  <si>
+    <t>Partner main address - Homepage</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>NUTS 3</t>
+  </si>
+  <si>
+    <t>Street - House number</t>
+  </si>
+  <si>
+    <t>Postal code</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>E-mail address</t>
+  </si>
+  <si>
+    <t>Telephone no.</t>
+  </si>
+  <si>
+    <t>Internal DE</t>
+  </si>
+  <si>
     <t>Public DE</t>
-  </si>
-  <si>
-    <t>A.03.22</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>654321</t>
-  </si>
-  <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>There is a risk of indirect aid</t>
-  </si>
-  <si>
-    <t>General de minimis DE</t>
-  </si>
-  <si>
-    <t>Partnerstreet-2</t>
-  </si>
-  <si>
-    <t>1020</t>
-  </si>
-  <si>
-    <t>Partner city</t>
-  </si>
-  <si>
-    <t>partner@test.com</t>
-  </si>
-  <si>
-    <t>Linz-Wels (AT312)</t>
-  </si>
-  <si>
-    <t>Departmentstreet-5</t>
-  </si>
-  <si>
-    <t>4020</t>
-  </si>
-  <si>
-    <t>Department city</t>
-  </si>
-  <si>
-    <t>Mr</t>
-  </si>
-  <si>
-    <t>Legal</t>
-  </si>
-  <si>
-    <t>Representative</t>
-  </si>
-  <si>
-    <t>Ms</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>Person</t>
-  </si>
-  <si>
-    <t>contact@person.com</t>
-  </si>
-  <si>
-    <t>+1234567890</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>Approved</t>
-  </si>
-  <si>
-    <t>PP2</t>
-  </si>
-  <si>
-    <t>Partner</t>
-  </si>
-  <si>
-    <t>Large enterprise</t>
-  </si>
-  <si>
-    <t>C.10.82</t>
-  </si>
-  <si>
-    <t>España (ES)</t>
-  </si>
-  <si>
-    <t>León (ES413)</t>
-  </si>
-  <si>
-    <t>Ts</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Er</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Surname</t>
-  </si>
-  <si>
-    <t>name@surname.com</t>
-  </si>
-  <si>
-    <t>+0987654321</t>
-  </si>
-  <si>
-    <t>Project Partner in original language</t>
-  </si>
-  <si>
-    <t>Project Partner in english</t>
-  </si>
-  <si>
-    <t>France (FR)</t>
-  </si>
-  <si>
-    <t>Savoie (FRK27)</t>
-  </si>
-  <si>
-    <t>Rhône-Alpes (FRK2)</t>
-  </si>
-  <si>
-    <t>National public authority</t>
-  </si>
-  <si>
-    <t>Internal DE</t>
-  </si>
-  <si>
-    <t>444444</t>
-  </si>
-  <si>
-    <t>Partly</t>
-  </si>
-  <si>
-    <t>666666</t>
-  </si>
-  <si>
-    <t>111111111</t>
-  </si>
-  <si>
-    <t>Project Partner</t>
   </si>
 </sst>
 </file>
@@ -264,7 +579,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -362,11 +677,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -382,6 +742,12 @@
     <xf numFmtId="4" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,434 +1062,459 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DD9"/>
+  <dimension ref="A1:DG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="CJ1" workbookViewId="0">
+      <selection activeCell="CM16" sqref="CM16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
-    <col min="2" max="2" width="65" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1"/>
-    <col min="8" max="9" width="20.85546875" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="40.7109375" customWidth="1"/>
-    <col min="14" max="14" width="50.7109375" customWidth="1"/>
-    <col min="15" max="15" width="39.5703125" customWidth="1"/>
-    <col min="16" max="16" width="34.140625" customWidth="1"/>
-    <col min="17" max="18" width="33" customWidth="1"/>
-    <col min="19" max="19" width="12" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" customWidth="1"/>
-    <col min="21" max="21" width="20.85546875" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" customWidth="1"/>
-    <col min="23" max="23" width="20.85546875" customWidth="1"/>
-    <col min="24" max="24" width="25.28515625" customWidth="1"/>
-    <col min="25" max="25" width="23" customWidth="1"/>
-    <col min="26" max="26" width="30.7109375" customWidth="1"/>
-    <col min="27" max="27" width="35.140625" customWidth="1"/>
-    <col min="28" max="28" width="8.7109375" customWidth="1"/>
-    <col min="29" max="29" width="16.42578125" customWidth="1"/>
-    <col min="30" max="30" width="20.85546875" customWidth="1"/>
-    <col min="31" max="31" width="6.42578125" customWidth="1"/>
-    <col min="32" max="32" width="14.28515625" customWidth="1"/>
-    <col min="33" max="33" width="18.7109375" customWidth="1"/>
-    <col min="34" max="34" width="5.42578125" customWidth="1"/>
-    <col min="35" max="35" width="13.140625" customWidth="1"/>
-    <col min="36" max="36" width="17.5703125" customWidth="1"/>
-    <col min="37" max="37" width="16.42578125" customWidth="1"/>
-    <col min="38" max="38" width="24.140625" customWidth="1"/>
-    <col min="39" max="39" width="28.5703125" customWidth="1"/>
-    <col min="40" max="40" width="22" customWidth="1"/>
-    <col min="41" max="41" width="27.42578125" customWidth="1"/>
-    <col min="42" max="42" width="23" customWidth="1"/>
-    <col min="43" max="43" width="29.7109375" customWidth="1"/>
-    <col min="44" max="44" width="24.140625" customWidth="1"/>
-    <col min="45" max="45" width="29.7109375" customWidth="1"/>
-    <col min="46" max="46" width="20.85546875" customWidth="1"/>
-    <col min="47" max="47" width="24.140625" customWidth="1"/>
-    <col min="48" max="49" width="19.7109375" customWidth="1"/>
-    <col min="50" max="50" width="44" customWidth="1"/>
-    <col min="51" max="51" width="48.42578125" customWidth="1"/>
-    <col min="52" max="52" width="36.28515625" customWidth="1"/>
-    <col min="53" max="53" width="38.5703125" customWidth="1"/>
-    <col min="54" max="55" width="40.7109375" customWidth="1"/>
-    <col min="56" max="56" width="44" customWidth="1"/>
-    <col min="57" max="58" width="48.42578125" customWidth="1"/>
-    <col min="59" max="59" width="19.7109375" customWidth="1"/>
-    <col min="60" max="61" width="24.140625" customWidth="1"/>
-    <col min="62" max="62" width="36.28515625" customWidth="1"/>
-    <col min="63" max="64" width="40.7109375" customWidth="1"/>
-    <col min="65" max="65" width="13.140625" customWidth="1"/>
-    <col min="66" max="66" width="52.85546875" customWidth="1"/>
-    <col min="67" max="67" width="10.85546875" customWidth="1"/>
-    <col min="68" max="68" width="13.140625" customWidth="1"/>
-    <col min="69" max="69" width="14.28515625" customWidth="1"/>
-    <col min="70" max="70" width="12" customWidth="1"/>
-    <col min="71" max="72" width="10.85546875" customWidth="1"/>
-    <col min="73" max="73" width="9.85546875" customWidth="1"/>
-    <col min="74" max="74" width="10.85546875" customWidth="1"/>
-    <col min="75" max="75" width="12" customWidth="1"/>
-    <col min="76" max="76" width="10.85546875" customWidth="1"/>
-    <col min="77" max="77" width="8.7109375" customWidth="1"/>
-    <col min="78" max="78" width="59.42578125" customWidth="1"/>
-    <col min="79" max="79" width="28.5703125" customWidth="1"/>
-    <col min="80" max="80" width="20.85546875" customWidth="1"/>
-    <col min="81" max="81" width="14.28515625" customWidth="1"/>
-    <col min="82" max="82" width="42.85546875" customWidth="1"/>
-    <col min="83" max="83" width="36.28515625" customWidth="1"/>
-    <col min="84" max="84" width="134.5703125" customWidth="1"/>
-    <col min="85" max="85" width="26.42578125" customWidth="1"/>
-    <col min="86" max="86" width="31.85546875" customWidth="1"/>
-    <col min="87" max="87" width="38.5703125" customWidth="1"/>
-    <col min="88" max="88" width="45.140625" customWidth="1"/>
-    <col min="89" max="89" width="27.42578125" customWidth="1"/>
-    <col min="90" max="90" width="34.140625" customWidth="1"/>
-    <col min="91" max="91" width="33" customWidth="1"/>
-    <col min="92" max="92" width="49.5703125" customWidth="1"/>
-    <col min="93" max="93" width="38.5703125" customWidth="1"/>
-    <col min="94" max="94" width="30.7109375" customWidth="1"/>
-    <col min="95" max="95" width="35.140625" customWidth="1"/>
-    <col min="96" max="96" width="20.85546875" customWidth="1"/>
-    <col min="97" max="98" width="24.140625" customWidth="1"/>
-    <col min="99" max="99" width="13.140625" customWidth="1"/>
-    <col min="100" max="100" width="17.5703125" customWidth="1"/>
-    <col min="101" max="101" width="6.42578125" customWidth="1"/>
-    <col min="102" max="102" width="12" customWidth="1"/>
-    <col min="103" max="103" width="16.42578125" customWidth="1"/>
-    <col min="104" max="104" width="6.42578125" customWidth="1"/>
-    <col min="105" max="105" width="12" customWidth="1"/>
-    <col min="106" max="106" width="10.85546875" customWidth="1"/>
-    <col min="107" max="107" width="22" customWidth="1"/>
-    <col min="108" max="108" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="64.5703125" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="35" customWidth="1"/>
+    <col min="14" max="14" width="41.7109375" customWidth="1"/>
+    <col min="15" max="15" width="32.85546875" customWidth="1"/>
+    <col min="16" max="16" width="29" customWidth="1"/>
+    <col min="17" max="18" width="28.28515625" customWidth="1"/>
+    <col min="19" max="19" width="10" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" customWidth="1"/>
+    <col min="23" max="23" width="16.85546875" customWidth="1"/>
+    <col min="24" max="24" width="19.28515625" customWidth="1"/>
+    <col min="25" max="25" width="22.140625" customWidth="1"/>
+    <col min="26" max="26" width="28.7109375" customWidth="1"/>
+    <col min="27" max="27" width="31.140625" customWidth="1"/>
+    <col min="28" max="28" width="6.140625" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" customWidth="1"/>
+    <col min="30" max="30" width="15.28515625" customWidth="1"/>
+    <col min="31" max="31" width="6.140625" customWidth="1"/>
+    <col min="32" max="32" width="12.7109375" customWidth="1"/>
+    <col min="33" max="33" width="15.140625" customWidth="1"/>
+    <col min="34" max="34" width="5.85546875" customWidth="1"/>
+    <col min="35" max="35" width="12.5703125" customWidth="1"/>
+    <col min="36" max="36" width="15" customWidth="1"/>
+    <col min="37" max="37" width="14.140625" customWidth="1"/>
+    <col min="38" max="38" width="20.7109375" customWidth="1"/>
+    <col min="39" max="39" width="23.140625" customWidth="1"/>
+    <col min="40" max="40" width="13.85546875" customWidth="1"/>
+    <col min="41" max="41" width="20.42578125" customWidth="1"/>
+    <col min="42" max="42" width="22.85546875" customWidth="1"/>
+    <col min="43" max="43" width="18.28515625" customWidth="1"/>
+    <col min="44" max="44" width="23.140625" customWidth="1"/>
+    <col min="45" max="45" width="19.140625" customWidth="1"/>
+    <col min="46" max="46" width="24.42578125" customWidth="1"/>
+    <col min="47" max="47" width="19.28515625" customWidth="1"/>
+    <col min="48" max="48" width="23.7109375" customWidth="1"/>
+    <col min="49" max="49" width="15.28515625" customWidth="1"/>
+    <col min="50" max="50" width="17.85546875" customWidth="1"/>
+    <col min="51" max="51" width="14.42578125" customWidth="1"/>
+    <col min="52" max="52" width="14.5703125" customWidth="1"/>
+    <col min="53" max="53" width="34.5703125" customWidth="1"/>
+    <col min="54" max="54" width="37.42578125" customWidth="1"/>
+    <col min="55" max="55" width="31.28515625" customWidth="1"/>
+    <col min="56" max="56" width="33" customWidth="1"/>
+    <col min="57" max="57" width="34.7109375" customWidth="1"/>
+    <col min="58" max="58" width="34.85546875" customWidth="1"/>
+    <col min="59" max="59" width="34.42578125" customWidth="1"/>
+    <col min="60" max="60" width="37.85546875" customWidth="1"/>
+    <col min="61" max="61" width="38" customWidth="1"/>
+    <col min="62" max="62" width="16.7109375" customWidth="1"/>
+    <col min="63" max="63" width="20.140625" customWidth="1"/>
+    <col min="64" max="64" width="20.28515625" customWidth="1"/>
+    <col min="65" max="65" width="29" customWidth="1"/>
+    <col min="66" max="66" width="32.42578125" customWidth="1"/>
+    <col min="67" max="67" width="32.5703125" customWidth="1"/>
+    <col min="68" max="68" width="11.28515625" customWidth="1"/>
+    <col min="69" max="69" width="44.28515625" customWidth="1"/>
+    <col min="70" max="70" width="10.28515625" customWidth="1"/>
+    <col min="71" max="71" width="11.5703125" customWidth="1"/>
+    <col min="72" max="72" width="12.7109375" customWidth="1"/>
+    <col min="73" max="73" width="11" customWidth="1"/>
+    <col min="74" max="77" width="8.85546875" customWidth="1"/>
+    <col min="78" max="78" width="11" customWidth="1"/>
+    <col min="79" max="79" width="10" customWidth="1"/>
+    <col min="80" max="80" width="7.7109375" customWidth="1"/>
+    <col min="81" max="81" width="41.85546875" customWidth="1"/>
+    <col min="82" max="82" width="23.28515625" customWidth="1"/>
+    <col min="83" max="83" width="17.85546875" customWidth="1"/>
+    <col min="84" max="84" width="21" customWidth="1"/>
+    <col min="85" max="85" width="34.140625" customWidth="1"/>
+    <col min="86" max="86" width="30" customWidth="1"/>
+    <col min="87" max="87" width="107" customWidth="1"/>
+    <col min="88" max="88" width="22.5703125" customWidth="1"/>
+    <col min="89" max="89" width="25.42578125" customWidth="1"/>
+    <col min="90" max="90" width="30.85546875" customWidth="1"/>
+    <col min="91" max="91" width="34.140625" customWidth="1"/>
+    <col min="92" max="92" width="24.85546875" customWidth="1"/>
+    <col min="93" max="93" width="29" customWidth="1"/>
+    <col min="94" max="94" width="28.28515625" customWidth="1"/>
+    <col min="95" max="95" width="42.140625" customWidth="1"/>
+    <col min="96" max="96" width="32.140625" customWidth="1"/>
+    <col min="97" max="97" width="25.28515625" customWidth="1"/>
+    <col min="98" max="98" width="31.5703125" customWidth="1"/>
+    <col min="99" max="99" width="14.5703125" customWidth="1"/>
+    <col min="100" max="100" width="17.140625" customWidth="1"/>
+    <col min="101" max="101" width="21.42578125" customWidth="1"/>
+    <col min="102" max="102" width="11.28515625" customWidth="1"/>
+    <col min="103" max="103" width="15.5703125" customWidth="1"/>
+    <col min="104" max="104" width="5" customWidth="1"/>
+    <col min="105" max="105" width="10.42578125" customWidth="1"/>
+    <col min="106" max="106" width="14.5703125" customWidth="1"/>
+    <col min="107" max="107" width="5" customWidth="1"/>
+    <col min="108" max="108" width="10.42578125" customWidth="1"/>
+    <col min="109" max="109" width="10.140625" customWidth="1"/>
+    <col min="110" max="110" width="20.28515625" customWidth="1"/>
+    <col min="111" max="111" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="5">
-        <v>38058.47</v>
-      </c>
-      <c r="T1" s="5">
-        <v>60</v>
-      </c>
-      <c r="U1" s="5">
-        <v>98.43</v>
-      </c>
-      <c r="V1" s="5">
-        <v>0</v>
-      </c>
-      <c r="W1" s="5">
-        <v>0</v>
-      </c>
-      <c r="X1" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y1" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN1" s="5">
-        <v>25372.32</v>
-      </c>
-      <c r="AO1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ1" s="5">
-        <v>25372.32</v>
-      </c>
-      <c r="AR1" s="5">
-        <v>63430.79</v>
-      </c>
-      <c r="AS1" s="5">
-        <v>98.43</v>
-      </c>
-      <c r="AT1" s="5">
-        <v>1291.02</v>
-      </c>
-      <c r="AU1" s="5">
-        <v>1291.02</v>
-      </c>
-      <c r="AV1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW1" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX1" s="5">
-        <v>129.1</v>
-      </c>
-      <c r="AY1" s="5">
-        <v>129.1</v>
-      </c>
-      <c r="AZ1" s="5">
+    <row r="1" spans="1:111" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD1" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE1" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF1" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG1" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH1" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI1" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ1" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK1" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="BA1" s="5">
-        <v>0</v>
-      </c>
-      <c r="BB1" s="5">
-        <v>100</v>
-      </c>
-      <c r="BC1" s="5">
-        <v>0</v>
-      </c>
-      <c r="BD1" s="5">
-        <v>100</v>
-      </c>
-      <c r="BE1" s="5">
-        <v>100</v>
-      </c>
-      <c r="BF1" s="5">
-        <v>0</v>
-      </c>
-      <c r="BG1" s="5">
-        <v>753.3</v>
-      </c>
-      <c r="BH1" s="5">
-        <v>753.3</v>
-      </c>
-      <c r="BI1" s="5">
-        <v>0</v>
-      </c>
-      <c r="BJ1" s="5">
-        <v>5501.81</v>
-      </c>
-      <c r="BK1" s="5">
-        <v>5501.81</v>
-      </c>
-      <c r="BL1" s="5">
-        <v>0</v>
-      </c>
-      <c r="BM1" s="5">
-        <v>0</v>
-      </c>
-      <c r="BN1" s="5">
-        <v>0</v>
-      </c>
-      <c r="BO1" s="5">
-        <v>55555.56</v>
-      </c>
-      <c r="BP1" s="5">
-        <v>55555.56</v>
-      </c>
-      <c r="BQ1" s="5">
-        <v>134.56</v>
-      </c>
-      <c r="BR1" s="5">
-        <v>61</v>
-      </c>
-      <c r="BS1" s="5">
-        <v>488</v>
-      </c>
-      <c r="BT1" s="5">
+      <c r="AL1" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP1" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS1" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT1" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV1" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW1" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AX1" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AZ1" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="BA1" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="BB1" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC1" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="BD1" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="BE1" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="BF1" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="BG1" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="BU1" s="5">
-        <v>0</v>
-      </c>
-      <c r="BV1" s="5">
-        <v>0</v>
-      </c>
-      <c r="BW1" s="5">
-        <v>0</v>
-      </c>
-      <c r="BX1" s="5">
-        <v>7069.67</v>
-      </c>
-      <c r="BY1" s="5">
-        <v>0</v>
-      </c>
-      <c r="BZ1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="CA1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="CB1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="CC1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="CD1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="CE1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="CF1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="CG1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="CH1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="CI1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="CJ1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CK1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="CL1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="CM1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="CN1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="CO1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="CP1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="CQ1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="CR1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="CS1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="CT1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="CU1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="CV1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="CW1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="CX1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="CY1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="CZ1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="DA1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="DB1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="DD1" s="7" t="s">
-        <v>38</v>
+      <c r="BH1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="BI1" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ1" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK1" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="BL1" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM1" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN1" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="BO1" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="BP1" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ1" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR1" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="BS1" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="BT1" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="BU1" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="BV1" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="BW1" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX1" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="BY1" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="BZ1" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="CA1" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="CB1" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="CC1" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="CD1" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="CE1" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="CF1" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="CG1" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="CH1" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="CI1" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="CJ1" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="CK1" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="CL1" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="CM1" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="CN1" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="CO1" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="CP1" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="CQ1" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="CR1" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="CS1" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="CT1" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="CU1" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="CV1" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="CW1" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="CX1" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="CY1" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="CZ1" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="DA1" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="DB1" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="DC1" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="DD1" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="DE1" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="DF1" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="DG1" s="20" t="s">
+        <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -1132,52 +1523,52 @@
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="S2" s="5">
-        <v>606.71</v>
+        <v>36875.050000000003</v>
       </c>
       <c r="T2" s="5">
         <v>60</v>
       </c>
       <c r="U2" s="5">
-        <v>1.57</v>
+        <v>100</v>
       </c>
       <c r="V2" s="5">
         <v>0</v>
@@ -1189,13 +1580,13 @@
         <v>0</v>
       </c>
       <c r="Y2" s="5">
-        <v>303.35000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="5">
         <v>0</v>
@@ -1234,37 +1625,37 @@
         <v>0</v>
       </c>
       <c r="AN2" s="5">
-        <v>50</v>
+        <v>9009.7999999999993</v>
       </c>
       <c r="AO2" s="5">
-        <v>0</v>
+        <v>14.66</v>
       </c>
       <c r="AP2" s="5">
-        <v>51.13</v>
+        <v>80.83</v>
       </c>
       <c r="AQ2" s="5">
-        <v>101.13</v>
+        <v>5698.97</v>
       </c>
       <c r="AR2" s="5">
-        <v>1011.19</v>
+        <v>6613.59</v>
       </c>
       <c r="AS2" s="5">
-        <v>1.57</v>
+        <v>3261.01</v>
       </c>
       <c r="AT2" s="5">
-        <v>722.28</v>
+        <v>15573.57</v>
       </c>
       <c r="AU2" s="5">
-        <v>0</v>
+        <v>61458.42</v>
       </c>
       <c r="AV2" s="5">
-        <v>0</v>
+        <v>81.180000000000007</v>
       </c>
       <c r="AW2" s="5">
-        <v>722.28</v>
+        <v>7619.9</v>
       </c>
       <c r="AX2" s="5">
-        <v>0</v>
+        <v>7619.9</v>
       </c>
       <c r="AY2" s="5">
         <v>0</v>
@@ -1273,175 +1664,184 @@
         <v>0</v>
       </c>
       <c r="BA2" s="5">
-        <v>0</v>
+        <v>761.99</v>
       </c>
       <c r="BB2" s="5">
-        <v>0</v>
+        <v>761.99</v>
       </c>
       <c r="BC2" s="5">
-        <v>0</v>
+        <v>6433.1</v>
       </c>
       <c r="BD2" s="5">
         <v>0</v>
       </c>
       <c r="BE2" s="5">
-        <v>0</v>
+        <v>999.99</v>
       </c>
       <c r="BF2" s="5">
-        <v>0</v>
+        <v>5433.11</v>
       </c>
       <c r="BG2" s="5">
-        <v>0</v>
+        <v>3800.95</v>
       </c>
       <c r="BH2" s="5">
-        <v>0</v>
+        <v>100.99</v>
       </c>
       <c r="BI2" s="5">
-        <v>0</v>
+        <v>3699.96</v>
       </c>
       <c r="BJ2" s="5">
-        <v>0</v>
+        <v>2139.36</v>
       </c>
       <c r="BK2" s="5">
-        <v>0</v>
+        <v>753.3</v>
       </c>
       <c r="BL2" s="5">
-        <v>0</v>
+        <v>1386.06</v>
       </c>
       <c r="BM2" s="5">
-        <v>288.91000000000003</v>
+        <v>25726.1</v>
       </c>
       <c r="BN2" s="5">
-        <v>0</v>
+        <v>5501.81</v>
       </c>
       <c r="BO2" s="5">
-        <v>0</v>
+        <v>20224.29</v>
       </c>
       <c r="BP2" s="5">
         <v>0</v>
       </c>
       <c r="BQ2" s="5">
-        <v>140</v>
+        <v>10977.03</v>
       </c>
       <c r="BR2" s="5">
-        <v>140</v>
+        <v>3999.99</v>
       </c>
       <c r="BS2" s="5">
-        <v>140</v>
+        <v>1999.99</v>
       </c>
       <c r="BT2" s="5">
-        <v>140</v>
+        <v>8645.06</v>
       </c>
       <c r="BU2" s="5">
-        <v>140</v>
+        <v>7241.77</v>
       </c>
       <c r="BV2" s="5">
-        <v>140</v>
+        <v>9668.11</v>
       </c>
       <c r="BW2" s="5">
-        <v>140</v>
+        <v>5050.07</v>
       </c>
       <c r="BX2" s="5">
-        <v>31.19</v>
+        <v>4257.72</v>
       </c>
       <c r="BY2" s="5">
-        <v>0</v>
-      </c>
-      <c r="BZ2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="CA2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="CB2" s="6" t="s">
-        <v>43</v>
+        <v>4702.2700000000004</v>
+      </c>
+      <c r="BZ2" s="5">
+        <v>5777.71</v>
+      </c>
+      <c r="CA2" s="5">
+        <v>14115.72</v>
+      </c>
+      <c r="CB2" s="5">
+        <v>0</v>
       </c>
       <c r="CC2" s="6" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="CD2" s="6" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="CE2" s="6" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="CF2" s="6" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="CG2" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="CH2" s="6" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="CI2" s="6" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="CJ2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="CK2" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="CL2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CK2" s="6" t="s">
+      <c r="CM2" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="CL2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="CM2" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="CN2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="CO2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="CP2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="CQ2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="CP2" s="6" t="s">
+      <c r="CR2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="CQ2" s="6" t="s">
+      <c r="CS2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="CR2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="CS2" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="CT2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="CU2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="CV2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="CU2" s="6" t="s">
+      <c r="CW2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="CV2" s="6" t="s">
+      <c r="CX2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="CW2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="CX2" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="CY2" s="6" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="CZ2" s="6" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="DA2" s="6" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="DB2" s="6" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="DC2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="DD2" s="7" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="DD2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="DF2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="DG2" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -1450,52 +1850,52 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="K3" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="S3" s="5">
-        <v>38058.47</v>
+        <v>0</v>
       </c>
       <c r="T3" s="5">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="U3" s="5">
-        <v>98.43</v>
+        <v>0</v>
       </c>
       <c r="V3" s="5">
         <v>0</v>
@@ -1507,13 +1907,13 @@
         <v>0</v>
       </c>
       <c r="Y3" s="5">
-        <v>0</v>
+        <v>3562.37</v>
       </c>
       <c r="Z3" s="5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA3" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB3" s="5">
         <v>0</v>
@@ -1552,76 +1952,76 @@
         <v>0</v>
       </c>
       <c r="AN3" s="5">
-        <v>25372.32</v>
+        <v>2137.42</v>
       </c>
       <c r="AO3" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AP3" s="5">
-        <v>0</v>
+        <v>19.170000000000002</v>
       </c>
       <c r="AQ3" s="5">
-        <v>25372.32</v>
+        <v>1234.99</v>
       </c>
       <c r="AR3" s="5">
-        <v>63430.79</v>
+        <v>6648.06</v>
       </c>
       <c r="AS3" s="5">
-        <v>98.43</v>
+        <v>666.66</v>
       </c>
       <c r="AT3" s="5">
-        <v>1291.02</v>
+        <v>8549.7099999999991</v>
       </c>
       <c r="AU3" s="5">
-        <v>1291.02</v>
+        <v>14249.5</v>
       </c>
       <c r="AV3" s="5">
-        <v>0</v>
+        <v>18.82</v>
       </c>
       <c r="AW3" s="5">
-        <v>0</v>
+        <v>6995.56</v>
       </c>
       <c r="AX3" s="5">
-        <v>129.1</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="5">
-        <v>129.1</v>
+        <v>1333.32</v>
       </c>
       <c r="AZ3" s="5">
-        <v>100</v>
+        <v>5662.24</v>
       </c>
       <c r="BA3" s="5">
         <v>0</v>
       </c>
       <c r="BB3" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BC3" s="5">
         <v>0</v>
       </c>
       <c r="BD3" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BE3" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BF3" s="5">
         <v>0</v>
       </c>
       <c r="BG3" s="5">
-        <v>753.3</v>
+        <v>0</v>
       </c>
       <c r="BH3" s="5">
-        <v>753.3</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="5">
         <v>0</v>
       </c>
       <c r="BJ3" s="5">
-        <v>5501.81</v>
+        <v>0</v>
       </c>
       <c r="BK3" s="5">
-        <v>5501.81</v>
+        <v>0</v>
       </c>
       <c r="BL3" s="5">
         <v>0</v>
@@ -1633,133 +2033,142 @@
         <v>0</v>
       </c>
       <c r="BO3" s="5">
-        <v>55555.56</v>
+        <v>0</v>
       </c>
       <c r="BP3" s="5">
-        <v>55555.56</v>
+        <v>2798.22</v>
       </c>
       <c r="BQ3" s="5">
-        <v>134.56</v>
+        <v>0</v>
       </c>
       <c r="BR3" s="5">
-        <v>61</v>
+        <v>4455.72</v>
       </c>
       <c r="BS3" s="5">
-        <v>488</v>
+        <v>0</v>
       </c>
       <c r="BT3" s="5">
-        <v>122</v>
+        <v>5711.5</v>
       </c>
       <c r="BU3" s="5">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="BV3" s="5">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="BW3" s="5">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="BX3" s="5">
-        <v>7069.67</v>
+        <v>840</v>
       </c>
       <c r="BY3" s="5">
-        <v>0</v>
-      </c>
-      <c r="BZ3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="CA3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="CB3" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="BZ3" s="5">
+        <v>840</v>
+      </c>
+      <c r="CA3" s="5">
+        <v>2597.84</v>
+      </c>
+      <c r="CB3" s="5">
+        <v>900.16</v>
+      </c>
+      <c r="CC3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="CC3" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="CD3" s="6" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="CE3" s="6" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="CF3" s="6" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="CG3" s="6" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="CH3" s="6" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="CI3" s="6" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="CJ3" s="6" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="CK3" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="CL3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="CM3" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="CL3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="CM3" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="CN3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="CO3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="CP3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="CQ3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="CP3" s="6" t="s">
+      <c r="CR3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="CQ3" s="6" t="s">
+      <c r="CS3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="CR3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="CS3" s="6" t="s">
+      <c r="CT3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="CT3" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="CU3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="CW3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="CV3" s="6" t="s">
+      <c r="CX3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="CW3" s="6" t="s">
+      <c r="CY3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="CX3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="CY3" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="CZ3" s="6" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="DA3" s="6" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="DB3" s="6" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="DC3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="DD3" s="7" t="s">
-        <v>38</v>
+        <v>60</v>
+      </c>
+      <c r="DD3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="DE3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="DF3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="DG3" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
@@ -1768,52 +2177,52 @@
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="S4" s="5">
-        <v>606.71</v>
+        <v>36875.050000000003</v>
       </c>
       <c r="T4" s="5">
         <v>60</v>
       </c>
       <c r="U4" s="5">
-        <v>1.57</v>
+        <v>100</v>
       </c>
       <c r="V4" s="5">
         <v>0</v>
@@ -1825,13 +2234,13 @@
         <v>0</v>
       </c>
       <c r="Y4" s="5">
-        <v>303.35000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="5">
         <v>0</v>
@@ -1870,37 +2279,37 @@
         <v>0</v>
       </c>
       <c r="AN4" s="5">
-        <v>50</v>
+        <v>9009.7999999999993</v>
       </c>
       <c r="AO4" s="5">
-        <v>0</v>
+        <v>14.66</v>
       </c>
       <c r="AP4" s="5">
-        <v>51.13</v>
+        <v>80.83</v>
       </c>
       <c r="AQ4" s="5">
-        <v>101.13</v>
+        <v>5698.97</v>
       </c>
       <c r="AR4" s="5">
-        <v>1011.19</v>
+        <v>6613.59</v>
       </c>
       <c r="AS4" s="5">
-        <v>1.57</v>
+        <v>3261.01</v>
       </c>
       <c r="AT4" s="5">
-        <v>722.28</v>
+        <v>15573.57</v>
       </c>
       <c r="AU4" s="5">
-        <v>0</v>
+        <v>61458.42</v>
       </c>
       <c r="AV4" s="5">
-        <v>0</v>
+        <v>81.180000000000007</v>
       </c>
       <c r="AW4" s="5">
-        <v>722.28</v>
+        <v>7619.9</v>
       </c>
       <c r="AX4" s="5">
-        <v>0</v>
+        <v>7619.9</v>
       </c>
       <c r="AY4" s="5">
         <v>0</v>
@@ -1909,175 +2318,184 @@
         <v>0</v>
       </c>
       <c r="BA4" s="5">
-        <v>0</v>
+        <v>761.99</v>
       </c>
       <c r="BB4" s="5">
-        <v>0</v>
+        <v>761.99</v>
       </c>
       <c r="BC4" s="5">
-        <v>0</v>
+        <v>6433.1</v>
       </c>
       <c r="BD4" s="5">
         <v>0</v>
       </c>
       <c r="BE4" s="5">
-        <v>0</v>
+        <v>999.99</v>
       </c>
       <c r="BF4" s="5">
-        <v>0</v>
+        <v>5433.11</v>
       </c>
       <c r="BG4" s="5">
-        <v>0</v>
+        <v>3800.95</v>
       </c>
       <c r="BH4" s="5">
-        <v>0</v>
+        <v>100.99</v>
       </c>
       <c r="BI4" s="5">
-        <v>0</v>
+        <v>3699.96</v>
       </c>
       <c r="BJ4" s="5">
-        <v>0</v>
+        <v>2139.36</v>
       </c>
       <c r="BK4" s="5">
-        <v>0</v>
+        <v>753.3</v>
       </c>
       <c r="BL4" s="5">
-        <v>0</v>
+        <v>1386.06</v>
       </c>
       <c r="BM4" s="5">
-        <v>288.91000000000003</v>
+        <v>25726.1</v>
       </c>
       <c r="BN4" s="5">
-        <v>0</v>
+        <v>5501.81</v>
       </c>
       <c r="BO4" s="5">
-        <v>0</v>
+        <v>20224.29</v>
       </c>
       <c r="BP4" s="5">
         <v>0</v>
       </c>
       <c r="BQ4" s="5">
-        <v>140</v>
+        <v>10977.03</v>
       </c>
       <c r="BR4" s="5">
-        <v>140</v>
+        <v>3999.99</v>
       </c>
       <c r="BS4" s="5">
-        <v>140</v>
+        <v>1999.99</v>
       </c>
       <c r="BT4" s="5">
-        <v>140</v>
+        <v>8645.06</v>
       </c>
       <c r="BU4" s="5">
-        <v>140</v>
+        <v>7241.77</v>
       </c>
       <c r="BV4" s="5">
-        <v>140</v>
+        <v>9668.11</v>
       </c>
       <c r="BW4" s="5">
-        <v>140</v>
+        <v>5050.07</v>
       </c>
       <c r="BX4" s="5">
-        <v>31.19</v>
+        <v>4257.72</v>
       </c>
       <c r="BY4" s="5">
-        <v>0</v>
-      </c>
-      <c r="BZ4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="CA4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="CB4" s="6" t="s">
-        <v>43</v>
+        <v>4702.2700000000004</v>
+      </c>
+      <c r="BZ4" s="5">
+        <v>5777.71</v>
+      </c>
+      <c r="CA4" s="5">
+        <v>14115.72</v>
+      </c>
+      <c r="CB4" s="5">
+        <v>0</v>
       </c>
       <c r="CC4" s="6" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="CD4" s="6" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="CE4" s="6" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="CF4" s="6" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="CG4" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="CH4" s="6" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="CI4" s="6" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="CJ4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="CK4" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="CL4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CK4" s="6" t="s">
+      <c r="CM4" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="CL4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="CM4" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="CN4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="CO4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="CP4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="CQ4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="CP4" s="6" t="s">
+      <c r="CR4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="CQ4" s="6" t="s">
+      <c r="CS4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="CR4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="CS4" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="CT4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="CU4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="CV4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="CU4" s="6" t="s">
+      <c r="CW4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="CV4" s="6" t="s">
+      <c r="CX4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="CW4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="CX4" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="CY4" s="6" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="CZ4" s="6" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="DA4" s="6" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="DB4" s="6" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="DC4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="DD4" s="7" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="DD4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="DF4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="DG4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -2086,52 +2504,52 @@
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="K5" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="S5" s="5">
-        <v>38058.47</v>
+        <v>0</v>
       </c>
       <c r="T5" s="5">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="U5" s="5">
-        <v>98.43</v>
+        <v>0</v>
       </c>
       <c r="V5" s="5">
         <v>0</v>
@@ -2143,13 +2561,13 @@
         <v>0</v>
       </c>
       <c r="Y5" s="5">
-        <v>0</v>
+        <v>3562.37</v>
       </c>
       <c r="Z5" s="5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA5" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB5" s="5">
         <v>0</v>
@@ -2188,76 +2606,76 @@
         <v>0</v>
       </c>
       <c r="AN5" s="5">
-        <v>25372.32</v>
+        <v>2137.42</v>
       </c>
       <c r="AO5" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AP5" s="5">
-        <v>0</v>
+        <v>19.170000000000002</v>
       </c>
       <c r="AQ5" s="5">
-        <v>25372.32</v>
+        <v>1234.99</v>
       </c>
       <c r="AR5" s="5">
-        <v>63430.79</v>
+        <v>6648.06</v>
       </c>
       <c r="AS5" s="5">
-        <v>98.43</v>
+        <v>666.66</v>
       </c>
       <c r="AT5" s="5">
-        <v>1291.02</v>
+        <v>8549.7099999999991</v>
       </c>
       <c r="AU5" s="5">
-        <v>1291.02</v>
+        <v>14249.5</v>
       </c>
       <c r="AV5" s="5">
-        <v>0</v>
+        <v>18.82</v>
       </c>
       <c r="AW5" s="5">
-        <v>0</v>
+        <v>6995.56</v>
       </c>
       <c r="AX5" s="5">
-        <v>129.1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="5">
-        <v>129.1</v>
+        <v>1333.32</v>
       </c>
       <c r="AZ5" s="5">
-        <v>100</v>
+        <v>5662.24</v>
       </c>
       <c r="BA5" s="5">
         <v>0</v>
       </c>
       <c r="BB5" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BC5" s="5">
         <v>0</v>
       </c>
       <c r="BD5" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="5">
         <v>0</v>
       </c>
       <c r="BG5" s="5">
-        <v>753.3</v>
+        <v>0</v>
       </c>
       <c r="BH5" s="5">
-        <v>753.3</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="5">
         <v>0</v>
       </c>
       <c r="BJ5" s="5">
-        <v>5501.81</v>
+        <v>0</v>
       </c>
       <c r="BK5" s="5">
-        <v>5501.81</v>
+        <v>0</v>
       </c>
       <c r="BL5" s="5">
         <v>0</v>
@@ -2269,133 +2687,142 @@
         <v>0</v>
       </c>
       <c r="BO5" s="5">
-        <v>55555.56</v>
+        <v>0</v>
       </c>
       <c r="BP5" s="5">
-        <v>55555.56</v>
+        <v>2798.22</v>
       </c>
       <c r="BQ5" s="5">
-        <v>134.56</v>
+        <v>0</v>
       </c>
       <c r="BR5" s="5">
-        <v>61</v>
+        <v>4455.72</v>
       </c>
       <c r="BS5" s="5">
-        <v>488</v>
+        <v>0</v>
       </c>
       <c r="BT5" s="5">
-        <v>122</v>
+        <v>5711.5</v>
       </c>
       <c r="BU5" s="5">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="BV5" s="5">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="BW5" s="5">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="BX5" s="5">
-        <v>7069.67</v>
+        <v>840</v>
       </c>
       <c r="BY5" s="5">
-        <v>0</v>
-      </c>
-      <c r="BZ5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="CA5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="CB5" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="BZ5" s="5">
+        <v>840</v>
+      </c>
+      <c r="CA5" s="5">
+        <v>2597.84</v>
+      </c>
+      <c r="CB5" s="5">
+        <v>900.16</v>
+      </c>
+      <c r="CC5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="CC5" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="CD5" s="6" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="CE5" s="6" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="CF5" s="6" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="CG5" s="6" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="CH5" s="6" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="CI5" s="6" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="CJ5" s="6" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="CK5" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="CL5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="CM5" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="CL5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="CM5" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="CN5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="CO5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="CP5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="CQ5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="CP5" s="6" t="s">
+      <c r="CR5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="CQ5" s="6" t="s">
+      <c r="CS5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="CR5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="CS5" s="6" t="s">
+      <c r="CT5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="CT5" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="CU5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="CW5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="CV5" s="6" t="s">
+      <c r="CX5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="CW5" s="6" t="s">
+      <c r="CY5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="CX5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="CY5" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="CZ5" s="6" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="DA5" s="6" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="DB5" s="6" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="DC5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="DD5" s="7" t="s">
-        <v>38</v>
+        <v>60</v>
+      </c>
+      <c r="DD5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="DE5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="DF5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="DG5" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -2404,52 +2831,52 @@
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="S6" s="5">
-        <v>606.71</v>
+        <v>36875.050000000003</v>
       </c>
       <c r="T6" s="5">
         <v>60</v>
       </c>
       <c r="U6" s="5">
-        <v>1.57</v>
+        <v>100</v>
       </c>
       <c r="V6" s="5">
         <v>0</v>
@@ -2461,13 +2888,13 @@
         <v>0</v>
       </c>
       <c r="Y6" s="5">
-        <v>303.35000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="5">
         <v>0</v>
@@ -2506,37 +2933,37 @@
         <v>0</v>
       </c>
       <c r="AN6" s="5">
-        <v>50</v>
+        <v>9009.7999999999993</v>
       </c>
       <c r="AO6" s="5">
-        <v>0</v>
+        <v>14.66</v>
       </c>
       <c r="AP6" s="5">
-        <v>51.13</v>
+        <v>80.83</v>
       </c>
       <c r="AQ6" s="5">
-        <v>101.13</v>
+        <v>5698.97</v>
       </c>
       <c r="AR6" s="5">
-        <v>1011.19</v>
+        <v>6613.59</v>
       </c>
       <c r="AS6" s="5">
-        <v>1.57</v>
+        <v>3261.01</v>
       </c>
       <c r="AT6" s="5">
-        <v>722.28</v>
+        <v>15573.57</v>
       </c>
       <c r="AU6" s="5">
-        <v>0</v>
+        <v>61458.42</v>
       </c>
       <c r="AV6" s="5">
-        <v>0</v>
+        <v>81.180000000000007</v>
       </c>
       <c r="AW6" s="5">
-        <v>722.28</v>
+        <v>7619.9</v>
       </c>
       <c r="AX6" s="5">
-        <v>0</v>
+        <v>7619.9</v>
       </c>
       <c r="AY6" s="5">
         <v>0</v>
@@ -2545,175 +2972,184 @@
         <v>0</v>
       </c>
       <c r="BA6" s="5">
-        <v>0</v>
+        <v>761.99</v>
       </c>
       <c r="BB6" s="5">
-        <v>0</v>
+        <v>761.99</v>
       </c>
       <c r="BC6" s="5">
-        <v>0</v>
+        <v>6433.1</v>
       </c>
       <c r="BD6" s="5">
         <v>0</v>
       </c>
       <c r="BE6" s="5">
-        <v>0</v>
+        <v>999.99</v>
       </c>
       <c r="BF6" s="5">
-        <v>0</v>
+        <v>5433.11</v>
       </c>
       <c r="BG6" s="5">
-        <v>0</v>
+        <v>3800.95</v>
       </c>
       <c r="BH6" s="5">
-        <v>0</v>
+        <v>100.99</v>
       </c>
       <c r="BI6" s="5">
-        <v>0</v>
+        <v>3699.96</v>
       </c>
       <c r="BJ6" s="5">
-        <v>0</v>
+        <v>2139.36</v>
       </c>
       <c r="BK6" s="5">
-        <v>0</v>
+        <v>753.3</v>
       </c>
       <c r="BL6" s="5">
-        <v>0</v>
+        <v>1386.06</v>
       </c>
       <c r="BM6" s="5">
-        <v>288.91000000000003</v>
+        <v>25726.1</v>
       </c>
       <c r="BN6" s="5">
-        <v>0</v>
+        <v>5501.81</v>
       </c>
       <c r="BO6" s="5">
-        <v>0</v>
+        <v>20224.29</v>
       </c>
       <c r="BP6" s="5">
         <v>0</v>
       </c>
       <c r="BQ6" s="5">
-        <v>140</v>
+        <v>10977.03</v>
       </c>
       <c r="BR6" s="5">
-        <v>140</v>
+        <v>3999.99</v>
       </c>
       <c r="BS6" s="5">
-        <v>140</v>
+        <v>1999.99</v>
       </c>
       <c r="BT6" s="5">
-        <v>140</v>
+        <v>8645.06</v>
       </c>
       <c r="BU6" s="5">
-        <v>140</v>
+        <v>7241.77</v>
       </c>
       <c r="BV6" s="5">
-        <v>140</v>
+        <v>9668.11</v>
       </c>
       <c r="BW6" s="5">
-        <v>140</v>
+        <v>5050.07</v>
       </c>
       <c r="BX6" s="5">
-        <v>31.19</v>
+        <v>4257.72</v>
       </c>
       <c r="BY6" s="5">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="CA6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="CB6" s="6" t="s">
-        <v>43</v>
+        <v>4702.2700000000004</v>
+      </c>
+      <c r="BZ6" s="5">
+        <v>5777.71</v>
+      </c>
+      <c r="CA6" s="5">
+        <v>14115.72</v>
+      </c>
+      <c r="CB6" s="5">
+        <v>0</v>
       </c>
       <c r="CC6" s="6" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="CD6" s="6" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="CE6" s="6" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="CF6" s="6" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="CG6" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="CH6" s="6" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="CI6" s="6" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="CJ6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="CK6" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="CL6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CK6" s="6" t="s">
+      <c r="CM6" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="CL6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="CM6" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="CN6" s="6" t="s">
         <v>23</v>
       </c>
       <c r="CO6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="CP6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="CQ6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="CP6" s="6" t="s">
+      <c r="CR6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="CQ6" s="6" t="s">
+      <c r="CS6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="CR6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="CS6" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="CT6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="CU6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="CV6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="CU6" s="6" t="s">
+      <c r="CW6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="CV6" s="6" t="s">
+      <c r="CX6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="CW6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="CX6" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="CY6" s="6" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="CZ6" s="6" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="DA6" s="6" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="DB6" s="6" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="DC6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="DD6" s="7" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="DD6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="DF6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="DG6" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
@@ -2722,71 +3158,71 @@
         <v>0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="S7" s="5">
-        <v>34031.14</v>
+        <v>0</v>
       </c>
       <c r="T7" s="5">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>3562.37</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>25</v>
+      </c>
+      <c r="AA7" s="5">
         <v>100</v>
       </c>
-      <c r="V7" s="5">
-        <v>0</v>
-      </c>
-      <c r="W7" s="5">
-        <v>0</v>
-      </c>
-      <c r="X7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="5">
-        <v>0</v>
-      </c>
       <c r="AB7" s="5">
         <v>0</v>
       </c>
@@ -2824,67 +3260,67 @@
         <v>0</v>
       </c>
       <c r="AN7" s="5">
-        <v>22687.439999999999</v>
+        <v>2137.42</v>
       </c>
       <c r="AO7" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AP7" s="5">
-        <v>0</v>
+        <v>19.170000000000002</v>
       </c>
       <c r="AQ7" s="5">
-        <v>22687.439999999999</v>
+        <v>1234.99</v>
       </c>
       <c r="AR7" s="5">
-        <v>56718.58</v>
+        <v>6648.06</v>
       </c>
       <c r="AS7" s="5">
-        <v>100</v>
+        <v>666.66</v>
       </c>
       <c r="AT7" s="5">
-        <v>190.66</v>
+        <v>8549.7099999999991</v>
       </c>
       <c r="AU7" s="5">
-        <v>190.66</v>
+        <v>14249.5</v>
       </c>
       <c r="AV7" s="5">
-        <v>0</v>
+        <v>18.82</v>
       </c>
       <c r="AW7" s="5">
-        <v>0</v>
+        <v>6995.56</v>
       </c>
       <c r="AX7" s="5">
-        <v>19.059999999999999</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="5">
-        <v>19.059999999999999</v>
+        <v>1333.32</v>
       </c>
       <c r="AZ7" s="5">
-        <v>100</v>
+        <v>5662.24</v>
       </c>
       <c r="BA7" s="5">
         <v>0</v>
       </c>
       <c r="BB7" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BC7" s="5">
         <v>0</v>
       </c>
       <c r="BD7" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BE7" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="5">
         <v>0</v>
       </c>
       <c r="BG7" s="5">
-        <v>753.3</v>
+        <v>0</v>
       </c>
       <c r="BH7" s="5">
-        <v>753.3</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="5">
         <v>0</v>
@@ -2905,133 +3341,142 @@
         <v>0</v>
       </c>
       <c r="BO7" s="5">
-        <v>55555.56</v>
+        <v>0</v>
       </c>
       <c r="BP7" s="5">
-        <v>0</v>
+        <v>2798.22</v>
       </c>
       <c r="BQ7" s="5">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="BR7" s="5">
-        <v>500000</v>
+        <v>4455.72</v>
       </c>
       <c r="BS7" s="5">
         <v>0</v>
       </c>
       <c r="BT7" s="5">
-        <v>0</v>
+        <v>5711.5</v>
       </c>
       <c r="BU7" s="5">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="BV7" s="5">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="BW7" s="5">
-        <v>270000</v>
+        <v>840</v>
       </c>
       <c r="BX7" s="5">
-        <v>30569.99</v>
+        <v>840</v>
       </c>
       <c r="BY7" s="5">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="CA7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="CB7" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="BZ7" s="5">
+        <v>840</v>
+      </c>
+      <c r="CA7" s="5">
+        <v>2597.84</v>
+      </c>
+      <c r="CB7" s="5">
+        <v>900.16</v>
+      </c>
+      <c r="CC7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="CC7" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="CD7" s="6" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="CE7" s="6" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="CF7" s="6" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="CG7" s="6" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="CH7" s="6" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="CI7" s="6" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="CJ7" s="6" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="CK7" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="CL7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="CM7" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="CL7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="CM7" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="CN7" s="6" t="s">
         <v>23</v>
       </c>
       <c r="CO7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="CP7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="CQ7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="CP7" s="6" t="s">
+      <c r="CR7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="CQ7" s="6" t="s">
+      <c r="CS7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="CR7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="CS7" s="6" t="s">
+      <c r="CT7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="CT7" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="CU7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="CW7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="CV7" s="6" t="s">
+      <c r="CX7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="CW7" s="6" t="s">
+      <c r="CY7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="CX7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="CY7" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="CZ7" s="6" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="DA7" s="6" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="DB7" s="6" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="DC7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="DD7" s="7" t="s">
-        <v>38</v>
+        <v>60</v>
+      </c>
+      <c r="DD7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="DE7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="DF7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="DG7" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
@@ -3040,46 +3485,46 @@
         <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S8" s="5">
-        <v>34031.14</v>
+        <v>20716.97</v>
       </c>
       <c r="T8" s="5">
         <v>60</v>
@@ -3142,79 +3587,79 @@
         <v>0</v>
       </c>
       <c r="AN8" s="5">
-        <v>22687.439999999999</v>
+        <v>5061.84</v>
       </c>
       <c r="AO8" s="5">
-        <v>0</v>
+        <v>14.66</v>
       </c>
       <c r="AP8" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ8" s="5">
-        <v>22687.439999999999</v>
+        <v>4698.97</v>
       </c>
       <c r="AR8" s="5">
-        <v>56718.58</v>
+        <v>789.5</v>
       </c>
       <c r="AS8" s="5">
+        <v>3261.01</v>
+      </c>
+      <c r="AT8" s="5">
+        <v>8749.48</v>
+      </c>
+      <c r="AU8" s="5">
+        <v>34528.29</v>
+      </c>
+      <c r="AV8" s="5">
         <v>100</v>
       </c>
-      <c r="AT8" s="5">
-        <v>190.66</v>
-      </c>
-      <c r="AU8" s="5">
-        <v>190.66</v>
-      </c>
-      <c r="AV8" s="5">
-        <v>0</v>
-      </c>
       <c r="AW8" s="5">
-        <v>0</v>
+        <v>2474.6799999999998</v>
       </c>
       <c r="AX8" s="5">
-        <v>19.059999999999999</v>
+        <v>2474.6799999999998</v>
       </c>
       <c r="AY8" s="5">
-        <v>19.059999999999999</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="5">
-        <v>0</v>
+        <v>247.46</v>
       </c>
       <c r="BB8" s="5">
-        <v>100</v>
+        <v>247.46</v>
       </c>
       <c r="BC8" s="5">
-        <v>0</v>
+        <v>6433.1</v>
       </c>
       <c r="BD8" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="5">
-        <v>100</v>
+        <v>999.99</v>
       </c>
       <c r="BF8" s="5">
-        <v>0</v>
+        <v>5433.11</v>
       </c>
       <c r="BG8" s="5">
+        <v>3800.95</v>
+      </c>
+      <c r="BH8" s="5">
+        <v>100.99</v>
+      </c>
+      <c r="BI8" s="5">
+        <v>3699.96</v>
+      </c>
+      <c r="BJ8" s="5">
+        <v>2139.36</v>
+      </c>
+      <c r="BK8" s="5">
         <v>753.3</v>
       </c>
-      <c r="BH8" s="5">
-        <v>753.3</v>
-      </c>
-      <c r="BI8" s="5">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="5">
-        <v>0</v>
-      </c>
-      <c r="BK8" s="5">
-        <v>0</v>
-      </c>
       <c r="BL8" s="5">
-        <v>0</v>
+        <v>1386.06</v>
       </c>
       <c r="BM8" s="5">
         <v>0</v>
@@ -3223,448 +3668,793 @@
         <v>0</v>
       </c>
       <c r="BO8" s="5">
-        <v>55555.56</v>
+        <v>0</v>
       </c>
       <c r="BP8" s="5">
         <v>0</v>
       </c>
       <c r="BQ8" s="5">
+        <v>10977.03</v>
+      </c>
+      <c r="BR8" s="5">
+        <v>8455.7099999999991</v>
+      </c>
+      <c r="BS8" s="5">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="5">
         <v>1000000</v>
       </c>
-      <c r="BR8" s="5">
+      <c r="BU8" s="5">
         <v>500000</v>
       </c>
-      <c r="BS8" s="5">
-        <v>0</v>
-      </c>
-      <c r="BT8" s="5">
-        <v>0</v>
-      </c>
-      <c r="BU8" s="5">
-        <v>0</v>
-      </c>
       <c r="BV8" s="5">
         <v>0</v>
       </c>
       <c r="BW8" s="5">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="5">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="5">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="5">
         <v>270000</v>
       </c>
-      <c r="BX8" s="5">
+      <c r="CA8" s="5">
         <v>30569.99</v>
       </c>
-      <c r="BY8" s="5">
-        <v>0</v>
-      </c>
-      <c r="BZ8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="CA8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="CB8" s="6" t="s">
+      <c r="CB8" s="5">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="CC8" s="6" t="s">
+      <c r="CD8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="CD8" s="6" t="s">
+      <c r="CE8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="CE8" s="6" t="s">
+      <c r="CF8" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="CG8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="CF8" s="6" t="s">
+      <c r="CH8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="CG8" s="6" t="s">
+      <c r="CI8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CH8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="CI8" s="6" t="s">
+      <c r="CJ8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="CJ8" s="6" t="s">
+      <c r="CK8" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="CL8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CK8" s="6" t="s">
+      <c r="CM8" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="CL8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="CM8" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="CN8" s="6" t="s">
         <v>23</v>
       </c>
       <c r="CO8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="CP8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="CQ8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="CP8" s="6" t="s">
+      <c r="CR8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="CQ8" s="6" t="s">
+      <c r="CS8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="CR8" s="6" t="s">
+      <c r="CT8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="CU8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="CV8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="CW8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="CX8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="CY8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="DA8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="DB8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="DC8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="DD8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="DF8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="DG8" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="CS8" s="6" t="s">
+      <c r="O9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S9" s="5">
+        <v>20716.97</v>
+      </c>
+      <c r="T9" s="5">
+        <v>60</v>
+      </c>
+      <c r="U9" s="5">
+        <v>100</v>
+      </c>
+      <c r="V9" s="5">
+        <v>0</v>
+      </c>
+      <c r="W9" s="5">
+        <v>0</v>
+      </c>
+      <c r="X9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="5">
+        <v>5061.84</v>
+      </c>
+      <c r="AO9" s="5">
+        <v>14.66</v>
+      </c>
+      <c r="AP9" s="5">
+        <v>100</v>
+      </c>
+      <c r="AQ9" s="5">
+        <v>4698.97</v>
+      </c>
+      <c r="AR9" s="5">
+        <v>789.5</v>
+      </c>
+      <c r="AS9" s="5">
+        <v>3261.01</v>
+      </c>
+      <c r="AT9" s="5">
+        <v>8749.48</v>
+      </c>
+      <c r="AU9" s="5">
+        <v>34528.29</v>
+      </c>
+      <c r="AV9" s="5">
+        <v>100</v>
+      </c>
+      <c r="AW9" s="5">
+        <v>2474.6799999999998</v>
+      </c>
+      <c r="AX9" s="5">
+        <v>2474.6799999999998</v>
+      </c>
+      <c r="AY9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="5">
+        <v>247.46</v>
+      </c>
+      <c r="BB9" s="5">
+        <v>247.46</v>
+      </c>
+      <c r="BC9" s="5">
+        <v>6433.1</v>
+      </c>
+      <c r="BD9" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="5">
+        <v>999.99</v>
+      </c>
+      <c r="BF9" s="5">
+        <v>5433.11</v>
+      </c>
+      <c r="BG9" s="5">
+        <v>3800.95</v>
+      </c>
+      <c r="BH9" s="5">
+        <v>100.99</v>
+      </c>
+      <c r="BI9" s="5">
+        <v>3699.96</v>
+      </c>
+      <c r="BJ9" s="5">
+        <v>2139.36</v>
+      </c>
+      <c r="BK9" s="5">
+        <v>753.3</v>
+      </c>
+      <c r="BL9" s="5">
+        <v>1386.06</v>
+      </c>
+      <c r="BM9" s="5">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="5">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="5">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="5">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="5">
+        <v>10977.03</v>
+      </c>
+      <c r="BR9" s="5">
+        <v>8455.7099999999991</v>
+      </c>
+      <c r="BS9" s="5">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="BU9" s="5">
+        <v>500000</v>
+      </c>
+      <c r="BV9" s="5">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="5">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="5">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="5">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="5">
+        <v>270000</v>
+      </c>
+      <c r="CA9" s="5">
+        <v>30569.99</v>
+      </c>
+      <c r="CB9" s="5">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="CD9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="CE9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="CF9" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="CG9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="CH9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="CI9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CJ9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="CK9" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="CL9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="CM9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="CN9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="CO9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="CP9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="CQ9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="CR9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="CS9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="CT9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="CT8" s="6" t="s">
+      <c r="CU9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="CV9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="CU8" s="6" t="s">
+      <c r="CW9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="CV8" s="6" t="s">
+      <c r="CX9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="CW8" s="6" t="s">
+      <c r="CY9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="CX8" s="6" t="s">
+      <c r="CZ9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="CY8" s="6" t="s">
+      <c r="DA9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="CZ8" s="6" t="s">
+      <c r="DB9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="DA8" s="6" t="s">
+      <c r="DC9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="DB8" s="6" t="s">
+      <c r="DD9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="DC8" s="6" t="s">
+      <c r="DE9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="DD8" s="7" t="s">
+      <c r="DF9" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="DG9" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="9" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10" t="s">
+    <row r="10" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="S10" s="12">
+        <v>20716.97</v>
+      </c>
+      <c r="T10" s="12">
+        <v>60</v>
+      </c>
+      <c r="U10" s="12">
+        <v>100</v>
+      </c>
+      <c r="V10" s="12">
+        <v>0</v>
+      </c>
+      <c r="W10" s="12">
+        <v>0</v>
+      </c>
+      <c r="X10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="12">
+        <v>5061.84</v>
+      </c>
+      <c r="AO10" s="12">
+        <v>14.66</v>
+      </c>
+      <c r="AP10" s="12">
+        <v>100</v>
+      </c>
+      <c r="AQ10" s="12">
+        <v>4698.97</v>
+      </c>
+      <c r="AR10" s="12">
+        <v>789.5</v>
+      </c>
+      <c r="AS10" s="12">
+        <v>3261.01</v>
+      </c>
+      <c r="AT10" s="12">
+        <v>8749.48</v>
+      </c>
+      <c r="AU10" s="12">
+        <v>34528.29</v>
+      </c>
+      <c r="AV10" s="12">
+        <v>100</v>
+      </c>
+      <c r="AW10" s="12">
+        <v>2474.6799999999998</v>
+      </c>
+      <c r="AX10" s="12">
+        <v>2474.6799999999998</v>
+      </c>
+      <c r="AY10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="12">
+        <v>247.46</v>
+      </c>
+      <c r="BB10" s="12">
+        <v>247.46</v>
+      </c>
+      <c r="BC10" s="12">
+        <v>6433.1</v>
+      </c>
+      <c r="BD10" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="12">
+        <v>999.99</v>
+      </c>
+      <c r="BF10" s="12">
+        <v>5433.11</v>
+      </c>
+      <c r="BG10" s="12">
+        <v>3800.95</v>
+      </c>
+      <c r="BH10" s="12">
+        <v>100.99</v>
+      </c>
+      <c r="BI10" s="12">
+        <v>3699.96</v>
+      </c>
+      <c r="BJ10" s="12">
+        <v>2139.36</v>
+      </c>
+      <c r="BK10" s="12">
+        <v>753.3</v>
+      </c>
+      <c r="BL10" s="12">
+        <v>1386.06</v>
+      </c>
+      <c r="BM10" s="12">
+        <v>0</v>
+      </c>
+      <c r="BN10" s="12">
+        <v>0</v>
+      </c>
+      <c r="BO10" s="12">
+        <v>0</v>
+      </c>
+      <c r="BP10" s="12">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="12">
+        <v>10977.03</v>
+      </c>
+      <c r="BR10" s="12">
+        <v>8455.7099999999991</v>
+      </c>
+      <c r="BS10" s="12">
+        <v>0</v>
+      </c>
+      <c r="BT10" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="BU10" s="12">
+        <v>500000</v>
+      </c>
+      <c r="BV10" s="12">
+        <v>0</v>
+      </c>
+      <c r="BW10" s="12">
+        <v>0</v>
+      </c>
+      <c r="BX10" s="12">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="12">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="12">
+        <v>270000</v>
+      </c>
+      <c r="CA10" s="12">
+        <v>30569.99</v>
+      </c>
+      <c r="CB10" s="12">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="CD10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="CE10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="CF10" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="CG10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="CH10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="CI10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="CJ10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="CK10" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="CL10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="CM10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="CN10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="CO10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="CP10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="CQ10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="CR10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="CS10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="CT10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="CU10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="CV10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="CW10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="CX10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="CY10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="CZ10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="DA10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="DB10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="DC10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="DD10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="DF10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="DG10" s="14" t="s">
         <v>39</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="S9" s="12">
-        <v>34031.14</v>
-      </c>
-      <c r="T9" s="12">
-        <v>60</v>
-      </c>
-      <c r="U9" s="12">
-        <v>100</v>
-      </c>
-      <c r="V9" s="12">
-        <v>0</v>
-      </c>
-      <c r="W9" s="12">
-        <v>0</v>
-      </c>
-      <c r="X9" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="12">
-        <v>22687.439999999999</v>
-      </c>
-      <c r="AO9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="12">
-        <v>22687.439999999999</v>
-      </c>
-      <c r="AR9" s="12">
-        <v>56718.58</v>
-      </c>
-      <c r="AS9" s="12">
-        <v>100</v>
-      </c>
-      <c r="AT9" s="12">
-        <v>190.66</v>
-      </c>
-      <c r="AU9" s="12">
-        <v>190.66</v>
-      </c>
-      <c r="AV9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="12">
-        <v>19.059999999999999</v>
-      </c>
-      <c r="AY9" s="12">
-        <v>19.059999999999999</v>
-      </c>
-      <c r="AZ9" s="12">
-        <v>100</v>
-      </c>
-      <c r="BA9" s="12">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="12">
-        <v>100</v>
-      </c>
-      <c r="BC9" s="12">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="12">
-        <v>100</v>
-      </c>
-      <c r="BE9" s="12">
-        <v>100</v>
-      </c>
-      <c r="BF9" s="12">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="12">
-        <v>753.3</v>
-      </c>
-      <c r="BH9" s="12">
-        <v>753.3</v>
-      </c>
-      <c r="BI9" s="12">
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="12">
-        <v>0</v>
-      </c>
-      <c r="BK9" s="12">
-        <v>0</v>
-      </c>
-      <c r="BL9" s="12">
-        <v>0</v>
-      </c>
-      <c r="BM9" s="12">
-        <v>0</v>
-      </c>
-      <c r="BN9" s="12">
-        <v>0</v>
-      </c>
-      <c r="BO9" s="12">
-        <v>55555.56</v>
-      </c>
-      <c r="BP9" s="12">
-        <v>0</v>
-      </c>
-      <c r="BQ9" s="12">
-        <v>1000000</v>
-      </c>
-      <c r="BR9" s="12">
-        <v>500000</v>
-      </c>
-      <c r="BS9" s="12">
-        <v>0</v>
-      </c>
-      <c r="BT9" s="12">
-        <v>0</v>
-      </c>
-      <c r="BU9" s="12">
-        <v>0</v>
-      </c>
-      <c r="BV9" s="12">
-        <v>0</v>
-      </c>
-      <c r="BW9" s="12">
-        <v>270000</v>
-      </c>
-      <c r="BX9" s="12">
-        <v>30569.99</v>
-      </c>
-      <c r="BY9" s="12">
-        <v>0</v>
-      </c>
-      <c r="BZ9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="CA9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="CB9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="CC9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="CD9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="CE9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="CF9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="CG9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="CH9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="CI9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="CJ9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="CK9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="CL9" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="CM9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="CN9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="CO9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="CP9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="CQ9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="CR9" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="CS9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="CT9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="CU9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="CV9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="CW9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="CX9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="CY9" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="CZ9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="DA9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="DB9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="DD9" s="14" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/jems-ui/e2e/cypress/fixtures/programme/TB-747-partner-export-de-de.xlsx
+++ b/jems-ui/e2e/cypress/fixtures/programme/TB-747-partner-export-de-de.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jems\ems\jems-ui\e2e\cypress\fixtures\programme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85ACF24-5FA0-4A9C-8A22-9854C65ACF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8731D628-D64D-414B-99CD-F43CF0716D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23625" yWindow="2700" windowWidth="19890" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="216" yWindow="2304" windowWidth="22824" windowHeight="6912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Partner data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="173">
   <si>
     <t>API generated application title DE</t>
   </si>
@@ -536,16 +536,27 @@
   </si>
   <si>
     <t>Public DE</t>
+  </si>
+  <si>
+    <t>www.partnerpage.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -723,10 +734,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -748,8 +760,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1064,122 +1078,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CJ1" workbookViewId="0">
-      <selection activeCell="CM16" sqref="CM16"/>
+    <sheetView tabSelected="1" topLeftCell="CQ1" workbookViewId="0">
+      <selection activeCell="CT6" sqref="CT6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.5703125" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="64.5546875" customWidth="1"/>
+    <col min="2" max="2" width="57.5546875" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" customWidth="1"/>
     <col min="13" max="13" width="35" customWidth="1"/>
-    <col min="14" max="14" width="41.7109375" customWidth="1"/>
-    <col min="15" max="15" width="32.85546875" customWidth="1"/>
+    <col min="14" max="14" width="41.6640625" customWidth="1"/>
+    <col min="15" max="15" width="32.88671875" customWidth="1"/>
     <col min="16" max="16" width="29" customWidth="1"/>
-    <col min="17" max="18" width="28.28515625" customWidth="1"/>
+    <col min="17" max="18" width="28.33203125" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" customWidth="1"/>
-    <col min="23" max="23" width="16.85546875" customWidth="1"/>
-    <col min="24" max="24" width="19.28515625" customWidth="1"/>
-    <col min="25" max="25" width="22.140625" customWidth="1"/>
-    <col min="26" max="26" width="28.7109375" customWidth="1"/>
-    <col min="27" max="27" width="31.140625" customWidth="1"/>
-    <col min="28" max="28" width="6.140625" customWidth="1"/>
-    <col min="29" max="29" width="12.85546875" customWidth="1"/>
-    <col min="30" max="30" width="15.28515625" customWidth="1"/>
-    <col min="31" max="31" width="6.140625" customWidth="1"/>
-    <col min="32" max="32" width="12.7109375" customWidth="1"/>
-    <col min="33" max="33" width="15.140625" customWidth="1"/>
-    <col min="34" max="34" width="5.85546875" customWidth="1"/>
-    <col min="35" max="35" width="12.5703125" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" customWidth="1"/>
+    <col min="21" max="21" width="17.6640625" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" customWidth="1"/>
+    <col min="23" max="23" width="16.88671875" customWidth="1"/>
+    <col min="24" max="24" width="19.33203125" customWidth="1"/>
+    <col min="25" max="25" width="22.109375" customWidth="1"/>
+    <col min="26" max="26" width="28.6640625" customWidth="1"/>
+    <col min="27" max="27" width="31.109375" customWidth="1"/>
+    <col min="28" max="28" width="6.109375" customWidth="1"/>
+    <col min="29" max="29" width="12.88671875" customWidth="1"/>
+    <col min="30" max="30" width="15.33203125" customWidth="1"/>
+    <col min="31" max="31" width="6.109375" customWidth="1"/>
+    <col min="32" max="32" width="12.6640625" customWidth="1"/>
+    <col min="33" max="33" width="15.109375" customWidth="1"/>
+    <col min="34" max="34" width="5.88671875" customWidth="1"/>
+    <col min="35" max="35" width="12.5546875" customWidth="1"/>
     <col min="36" max="36" width="15" customWidth="1"/>
-    <col min="37" max="37" width="14.140625" customWidth="1"/>
-    <col min="38" max="38" width="20.7109375" customWidth="1"/>
-    <col min="39" max="39" width="23.140625" customWidth="1"/>
-    <col min="40" max="40" width="13.85546875" customWidth="1"/>
-    <col min="41" max="41" width="20.42578125" customWidth="1"/>
-    <col min="42" max="42" width="22.85546875" customWidth="1"/>
-    <col min="43" max="43" width="18.28515625" customWidth="1"/>
-    <col min="44" max="44" width="23.140625" customWidth="1"/>
-    <col min="45" max="45" width="19.140625" customWidth="1"/>
-    <col min="46" max="46" width="24.42578125" customWidth="1"/>
-    <col min="47" max="47" width="19.28515625" customWidth="1"/>
-    <col min="48" max="48" width="23.7109375" customWidth="1"/>
-    <col min="49" max="49" width="15.28515625" customWidth="1"/>
-    <col min="50" max="50" width="17.85546875" customWidth="1"/>
-    <col min="51" max="51" width="14.42578125" customWidth="1"/>
-    <col min="52" max="52" width="14.5703125" customWidth="1"/>
-    <col min="53" max="53" width="34.5703125" customWidth="1"/>
-    <col min="54" max="54" width="37.42578125" customWidth="1"/>
-    <col min="55" max="55" width="31.28515625" customWidth="1"/>
+    <col min="37" max="37" width="14.109375" customWidth="1"/>
+    <col min="38" max="38" width="20.6640625" customWidth="1"/>
+    <col min="39" max="39" width="23.109375" customWidth="1"/>
+    <col min="40" max="40" width="13.88671875" customWidth="1"/>
+    <col min="41" max="41" width="20.44140625" customWidth="1"/>
+    <col min="42" max="42" width="22.88671875" customWidth="1"/>
+    <col min="43" max="43" width="18.33203125" customWidth="1"/>
+    <col min="44" max="44" width="23.109375" customWidth="1"/>
+    <col min="45" max="45" width="19.109375" customWidth="1"/>
+    <col min="46" max="46" width="24.44140625" customWidth="1"/>
+    <col min="47" max="47" width="19.33203125" customWidth="1"/>
+    <col min="48" max="48" width="23.6640625" customWidth="1"/>
+    <col min="49" max="49" width="15.33203125" customWidth="1"/>
+    <col min="50" max="50" width="17.88671875" customWidth="1"/>
+    <col min="51" max="51" width="14.44140625" customWidth="1"/>
+    <col min="52" max="52" width="14.5546875" customWidth="1"/>
+    <col min="53" max="53" width="34.5546875" customWidth="1"/>
+    <col min="54" max="54" width="37.44140625" customWidth="1"/>
+    <col min="55" max="55" width="31.33203125" customWidth="1"/>
     <col min="56" max="56" width="33" customWidth="1"/>
-    <col min="57" max="57" width="34.7109375" customWidth="1"/>
-    <col min="58" max="58" width="34.85546875" customWidth="1"/>
-    <col min="59" max="59" width="34.42578125" customWidth="1"/>
-    <col min="60" max="60" width="37.85546875" customWidth="1"/>
+    <col min="57" max="57" width="34.6640625" customWidth="1"/>
+    <col min="58" max="58" width="34.88671875" customWidth="1"/>
+    <col min="59" max="59" width="34.44140625" customWidth="1"/>
+    <col min="60" max="60" width="37.88671875" customWidth="1"/>
     <col min="61" max="61" width="38" customWidth="1"/>
-    <col min="62" max="62" width="16.7109375" customWidth="1"/>
-    <col min="63" max="63" width="20.140625" customWidth="1"/>
-    <col min="64" max="64" width="20.28515625" customWidth="1"/>
+    <col min="62" max="62" width="16.6640625" customWidth="1"/>
+    <col min="63" max="63" width="20.109375" customWidth="1"/>
+    <col min="64" max="64" width="20.33203125" customWidth="1"/>
     <col min="65" max="65" width="29" customWidth="1"/>
-    <col min="66" max="66" width="32.42578125" customWidth="1"/>
-    <col min="67" max="67" width="32.5703125" customWidth="1"/>
-    <col min="68" max="68" width="11.28515625" customWidth="1"/>
-    <col min="69" max="69" width="44.28515625" customWidth="1"/>
-    <col min="70" max="70" width="10.28515625" customWidth="1"/>
-    <col min="71" max="71" width="11.5703125" customWidth="1"/>
-    <col min="72" max="72" width="12.7109375" customWidth="1"/>
+    <col min="66" max="66" width="32.44140625" customWidth="1"/>
+    <col min="67" max="67" width="32.5546875" customWidth="1"/>
+    <col min="68" max="68" width="11.33203125" customWidth="1"/>
+    <col min="69" max="69" width="44.33203125" customWidth="1"/>
+    <col min="70" max="70" width="10.33203125" customWidth="1"/>
+    <col min="71" max="71" width="11.5546875" customWidth="1"/>
+    <col min="72" max="72" width="12.6640625" customWidth="1"/>
     <col min="73" max="73" width="11" customWidth="1"/>
-    <col min="74" max="77" width="8.85546875" customWidth="1"/>
+    <col min="74" max="77" width="8.88671875" customWidth="1"/>
     <col min="78" max="78" width="11" customWidth="1"/>
     <col min="79" max="79" width="10" customWidth="1"/>
-    <col min="80" max="80" width="7.7109375" customWidth="1"/>
-    <col min="81" max="81" width="41.85546875" customWidth="1"/>
-    <col min="82" max="82" width="23.28515625" customWidth="1"/>
-    <col min="83" max="83" width="17.85546875" customWidth="1"/>
+    <col min="80" max="80" width="7.6640625" customWidth="1"/>
+    <col min="81" max="81" width="41.88671875" customWidth="1"/>
+    <col min="82" max="82" width="23.33203125" customWidth="1"/>
+    <col min="83" max="83" width="17.88671875" customWidth="1"/>
     <col min="84" max="84" width="21" customWidth="1"/>
-    <col min="85" max="85" width="34.140625" customWidth="1"/>
+    <col min="85" max="85" width="34.109375" customWidth="1"/>
     <col min="86" max="86" width="30" customWidth="1"/>
     <col min="87" max="87" width="107" customWidth="1"/>
-    <col min="88" max="88" width="22.5703125" customWidth="1"/>
-    <col min="89" max="89" width="25.42578125" customWidth="1"/>
-    <col min="90" max="90" width="30.85546875" customWidth="1"/>
-    <col min="91" max="91" width="34.140625" customWidth="1"/>
-    <col min="92" max="92" width="24.85546875" customWidth="1"/>
+    <col min="88" max="88" width="22.5546875" customWidth="1"/>
+    <col min="89" max="89" width="25.44140625" customWidth="1"/>
+    <col min="90" max="90" width="30.88671875" customWidth="1"/>
+    <col min="91" max="91" width="34.109375" customWidth="1"/>
+    <col min="92" max="92" width="24.88671875" customWidth="1"/>
     <col min="93" max="93" width="29" customWidth="1"/>
-    <col min="94" max="94" width="28.28515625" customWidth="1"/>
-    <col min="95" max="95" width="42.140625" customWidth="1"/>
-    <col min="96" max="96" width="32.140625" customWidth="1"/>
-    <col min="97" max="97" width="25.28515625" customWidth="1"/>
-    <col min="98" max="98" width="31.5703125" customWidth="1"/>
-    <col min="99" max="99" width="14.5703125" customWidth="1"/>
-    <col min="100" max="100" width="17.140625" customWidth="1"/>
-    <col min="101" max="101" width="21.42578125" customWidth="1"/>
-    <col min="102" max="102" width="11.28515625" customWidth="1"/>
-    <col min="103" max="103" width="15.5703125" customWidth="1"/>
+    <col min="94" max="94" width="28.33203125" customWidth="1"/>
+    <col min="95" max="95" width="42.109375" customWidth="1"/>
+    <col min="96" max="96" width="32.109375" customWidth="1"/>
+    <col min="97" max="97" width="25.33203125" customWidth="1"/>
+    <col min="98" max="98" width="31.5546875" customWidth="1"/>
+    <col min="99" max="99" width="14.5546875" customWidth="1"/>
+    <col min="100" max="100" width="17.109375" customWidth="1"/>
+    <col min="101" max="101" width="21.44140625" customWidth="1"/>
+    <col min="102" max="102" width="11.33203125" customWidth="1"/>
+    <col min="103" max="103" width="15.5546875" customWidth="1"/>
     <col min="104" max="104" width="5" customWidth="1"/>
-    <col min="105" max="105" width="10.42578125" customWidth="1"/>
-    <col min="106" max="106" width="14.5703125" customWidth="1"/>
+    <col min="105" max="105" width="10.44140625" customWidth="1"/>
+    <col min="106" max="106" width="14.5546875" customWidth="1"/>
     <col min="107" max="107" width="5" customWidth="1"/>
-    <col min="108" max="108" width="10.42578125" customWidth="1"/>
-    <col min="109" max="109" width="10.140625" customWidth="1"/>
-    <col min="110" max="110" width="20.28515625" customWidth="1"/>
-    <col min="111" max="111" width="13.85546875" customWidth="1"/>
+    <col min="108" max="108" width="10.44140625" customWidth="1"/>
+    <col min="109" max="109" width="10.109375" customWidth="1"/>
+    <col min="110" max="110" width="20.33203125" customWidth="1"/>
+    <col min="111" max="111" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:111" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:111" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>65</v>
       </c>
@@ -1514,7 +1528,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -1798,8 +1812,8 @@
       <c r="CS2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="CT2" s="6" t="s">
-        <v>27</v>
+      <c r="CT2" s="21" t="s">
+        <v>172</v>
       </c>
       <c r="CU2" s="6" t="s">
         <v>11</v>
@@ -1841,7 +1855,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -2168,7 +2182,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
@@ -2452,8 +2466,8 @@
       <c r="CS4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="CT4" s="6" t="s">
-        <v>27</v>
+      <c r="CT4" s="21" t="s">
+        <v>172</v>
       </c>
       <c r="CU4" s="6" t="s">
         <v>11</v>
@@ -2495,7 +2509,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -2822,7 +2836,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -3106,8 +3120,8 @@
       <c r="CS6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="CT6" s="6" t="s">
-        <v>27</v>
+      <c r="CT6" s="21" t="s">
+        <v>172</v>
       </c>
       <c r="CU6" s="6" t="s">
         <v>11</v>
@@ -3149,7 +3163,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
@@ -3476,7 +3490,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
@@ -3803,7 +3817,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -4130,7 +4144,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
@@ -4458,6 +4472,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="CT2" r:id="rId1" xr:uid="{051F7965-2125-4594-954C-11263770C06D}"/>
+    <hyperlink ref="CT4" r:id="rId2" xr:uid="{465E5B7A-D24D-4FDB-9B6B-028B8B566BF9}"/>
+    <hyperlink ref="CT6" r:id="rId3" xr:uid="{5630A6DE-FCCA-4C0C-BC9C-E167B174F879}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/jems-ui/e2e/cypress/fixtures/programme/TB-747-partner-export-de-de.xlsx
+++ b/jems-ui/e2e/cypress/fixtures/programme/TB-747-partner-export-de-de.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jems\ems\jems-ui\e2e\cypress\fixtures\programme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8731D628-D64D-414B-99CD-F43CF0716D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC02347-A907-443D-A716-48BB87B32E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="216" yWindow="2304" windowWidth="22824" windowHeight="6912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54600" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Partner data" sheetId="1" r:id="rId1"/>
@@ -1076,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DG10"/>
+  <dimension ref="A1:DG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CQ1" workbookViewId="0">
-      <selection activeCell="CT6" sqref="CT6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1570,10 +1570,10 @@
         <v>11</v>
       </c>
       <c r="Q2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="S2" s="5">
         <v>36875.050000000003</v>
@@ -1897,10 +1897,10 @@
         <v>45</v>
       </c>
       <c r="Q3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="S3" s="5">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>11</v>
       </c>
       <c r="Q4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="S4" s="5">
         <v>36875.050000000003</v>
@@ -2551,10 +2551,10 @@
         <v>45</v>
       </c>
       <c r="Q5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="S5" s="5">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>11</v>
       </c>
       <c r="Q6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="S6" s="5">
         <v>36875.050000000003</v>
@@ -3205,10 +3205,10 @@
         <v>45</v>
       </c>
       <c r="Q7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="S7" s="5">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>11</v>
       </c>
       <c r="Q8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R8" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="S8" s="5">
         <v>20716.97</v>
@@ -3859,10 +3859,10 @@
         <v>11</v>
       </c>
       <c r="Q9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="S9" s="5">
         <v>20716.97</v>
@@ -4144,7 +4144,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:111" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
@@ -4186,10 +4186,10 @@
         <v>11</v>
       </c>
       <c r="Q10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="S10" s="12">
         <v>20716.97</v>
@@ -4471,6 +4471,7 @@
         <v>39</v>
       </c>
     </row>
+    <row r="11" spans="1:111" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="CT2" r:id="rId1" xr:uid="{051F7965-2125-4594-954C-11263770C06D}"/>

--- a/jems-ui/e2e/cypress/fixtures/programme/TB-747-partner-export-de-de.xlsx
+++ b/jems-ui/e2e/cypress/fixtures/programme/TB-747-partner-export-de-de.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jems\ems\jems-ui\e2e\cypress\fixtures\programme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC02347-A907-443D-A716-48BB87B32E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95900CC-C6D0-41D0-B07E-79F1DCD3FB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54600" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Partner data" sheetId="1" r:id="rId1"/>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:DG11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/jems-ui/e2e/cypress/fixtures/programme/TB-747-partner-export-de-de.xlsx
+++ b/jems-ui/e2e/cypress/fixtures/programme/TB-747-partner-export-de-de.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jilic\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jems\ems\jems-ui\e2e\cypress\fixtures\programme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF9F280-F7D5-431D-A5C4-85CFF8A1C50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5E6990-A09F-43B3-93D7-C02ABE5DE01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29025" yWindow="3390" windowWidth="50220" windowHeight="9795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Partner data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="174">
   <si>
     <t>ID</t>
   </si>
@@ -539,6 +539,9 @@
   </si>
   <si>
     <t>+0987654321</t>
+  </si>
+  <si>
+    <t>API generated other identifier description DE</t>
   </si>
 </sst>
 </file>
@@ -1067,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="CI1" workbookViewId="0">
+      <selection activeCell="CL14" sqref="CL14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1773,7 +1776,7 @@
         <v>126</v>
       </c>
       <c r="CK2" s="12" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="CL2" s="12" t="s">
         <v>127</v>
@@ -2100,7 +2103,7 @@
         <v>160</v>
       </c>
       <c r="CK3" s="12" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="CL3" s="12" t="s">
         <v>161</v>
@@ -2427,7 +2430,7 @@
         <v>126</v>
       </c>
       <c r="CK4" s="12" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="CL4" s="12" t="s">
         <v>127</v>
@@ -2754,7 +2757,7 @@
         <v>160</v>
       </c>
       <c r="CK5" s="12" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="CL5" s="12" t="s">
         <v>161</v>
@@ -3081,7 +3084,7 @@
         <v>126</v>
       </c>
       <c r="CK6" s="12" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="CL6" s="12" t="s">
         <v>127</v>
@@ -3408,7 +3411,7 @@
         <v>160</v>
       </c>
       <c r="CK7" s="12" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="CL7" s="12" t="s">
         <v>161</v>
@@ -3735,7 +3738,7 @@
         <v>126</v>
       </c>
       <c r="CK8" s="12" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="CL8" s="12" t="s">
         <v>127</v>
@@ -4062,7 +4065,7 @@
         <v>126</v>
       </c>
       <c r="CK9" s="12" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="CL9" s="12" t="s">
         <v>127</v>
@@ -4389,7 +4392,7 @@
         <v>126</v>
       </c>
       <c r="CK10" s="19" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="CL10" s="19" t="s">
         <v>127</v>
